--- a/ExcelMaster/bin/Debug/Фед.гос.контроль.xlsx
+++ b/ExcelMaster/bin/Debug/Фед.гос.контроль.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Направление</t>
   </si>
@@ -26,7 +26,13 @@
     <t>Итог</t>
   </si>
   <si>
+    <t>Составил</t>
+  </si>
+  <si>
     <t>БТС</t>
+  </si>
+  <si>
+    <t>Hells</t>
   </si>
   <si>
     <t>БТС1-120</t>
@@ -75,7 +81,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -94,10 +100,13 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0">
         <v>10</v>
@@ -108,10 +117,13 @@
       <c r="D2" s="0">
         <v>10</v>
       </c>
+      <c r="E2" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="0">
         <v>0</v>
